--- a/backend/resultados.xlsx
+++ b/backend/resultados.xlsx
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>478332</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>164884</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>422465</v>
